--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.62119</v>
+        <v>104.1546325</v>
       </c>
       <c r="H2">
-        <v>49.24238</v>
+        <v>208.309265</v>
       </c>
       <c r="I2">
-        <v>0.3385836225326934</v>
+        <v>0.9300139342750302</v>
       </c>
       <c r="J2">
-        <v>0.2551111937816554</v>
+        <v>0.9008685911440201</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>188.15226</v>
+        <v>62.009941</v>
       </c>
       <c r="N2">
-        <v>376.30452</v>
+        <v>124.019882</v>
       </c>
       <c r="O2">
-        <v>0.7229435608948707</v>
+        <v>0.9837206946349113</v>
       </c>
       <c r="P2">
-        <v>0.6352299168920266</v>
+        <v>0.9775266241870173</v>
       </c>
       <c r="Q2">
-        <v>4632.5325423894</v>
+        <v>6458.622616201682</v>
       </c>
       <c r="R2">
-        <v>18530.1301695576</v>
+        <v>25834.49046480673</v>
       </c>
       <c r="S2">
-        <v>0.2447768497344701</v>
+        <v>0.9148739534451794</v>
       </c>
       <c r="T2">
-        <v>0.1620542624241466</v>
+        <v>0.8806230327371283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.62119</v>
+        <v>104.1546325</v>
       </c>
       <c r="H3">
-        <v>49.24238</v>
+        <v>208.309265</v>
       </c>
       <c r="I3">
-        <v>0.3385836225326934</v>
+        <v>0.9300139342750302</v>
       </c>
       <c r="J3">
-        <v>0.2551111937816554</v>
+        <v>0.9008685911440201</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.255768</v>
       </c>
       <c r="O3">
-        <v>0.0003275819074809576</v>
+        <v>0.001352494296709523</v>
       </c>
       <c r="P3">
-        <v>0.0004317553384254854</v>
+        <v>0.002015967323812363</v>
       </c>
       <c r="Q3">
-        <v>2.09910417464</v>
+        <v>8.879807348419998</v>
       </c>
       <c r="R3">
-        <v>12.59462504784</v>
+        <v>53.27884409052</v>
       </c>
       <c r="S3">
-        <v>0.0001109138689110722</v>
+        <v>0.001257838541967363</v>
       </c>
       <c r="T3">
-        <v>0.0001101456198073282</v>
+        <v>0.001816121642795224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.62119</v>
+        <v>104.1546325</v>
       </c>
       <c r="H4">
-        <v>49.24238</v>
+        <v>208.309265</v>
       </c>
       <c r="I4">
-        <v>0.3385836225326934</v>
+        <v>0.9300139342750302</v>
       </c>
       <c r="J4">
-        <v>0.2551111937816554</v>
+        <v>0.9008685911440201</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2289113333333334</v>
+        <v>0.4639336666666667</v>
       </c>
       <c r="N4">
-        <v>0.6867340000000001</v>
+        <v>1.391801</v>
       </c>
       <c r="O4">
-        <v>0.0008795534767915766</v>
+        <v>0.007359806209747155</v>
       </c>
       <c r="P4">
-        <v>0.001159257884404176</v>
+        <v>0.01097019696462955</v>
       </c>
       <c r="Q4">
-        <v>5.636069431153333</v>
+        <v>48.32084055604417</v>
       </c>
       <c r="R4">
-        <v>33.81641658692</v>
+        <v>289.925043336265</v>
       </c>
       <c r="S4">
-        <v>0.0002978024023833173</v>
+        <v>0.00684472232862875</v>
       </c>
       <c r="T4">
-        <v>0.0002957396627911456</v>
+        <v>0.009882705884098229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.62119</v>
+        <v>104.1546325</v>
       </c>
       <c r="H5">
-        <v>49.24238</v>
+        <v>208.309265</v>
       </c>
       <c r="I5">
-        <v>0.3385836225326934</v>
+        <v>0.9300139342750302</v>
       </c>
       <c r="J5">
-        <v>0.2551111937816554</v>
+        <v>0.9008685911440201</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.232407</v>
+        <v>0.227331</v>
       </c>
       <c r="N5">
-        <v>0.4648139999999999</v>
+        <v>0.454662</v>
       </c>
       <c r="O5">
-        <v>0.0008929849907563915</v>
+        <v>0.003606360619373094</v>
       </c>
       <c r="P5">
-        <v>0.000784640478382376</v>
+        <v>0.003583652901767135</v>
       </c>
       <c r="Q5">
-        <v>5.722136904329999</v>
+        <v>23.6775767608575</v>
       </c>
       <c r="R5">
-        <v>22.88854761732</v>
+        <v>94.71030704342999</v>
       </c>
       <c r="S5">
-        <v>0.0003023500930376227</v>
+        <v>0.003353965628037706</v>
       </c>
       <c r="T5">
-        <v>0.0002001705691295371</v>
+        <v>0.003228400340764139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.62119</v>
+        <v>104.1546325</v>
       </c>
       <c r="H6">
-        <v>49.24238</v>
+        <v>208.309265</v>
       </c>
       <c r="I6">
-        <v>0.3385836225326934</v>
+        <v>0.9300139342750302</v>
       </c>
       <c r="J6">
-        <v>0.2551111937816554</v>
+        <v>0.9008685911440201</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>70.49551400000001</v>
+        <v>0.1947683333333333</v>
       </c>
       <c r="N6">
-        <v>211.486542</v>
+        <v>0.5843050000000001</v>
       </c>
       <c r="O6">
-        <v>0.2708672110463845</v>
+        <v>0.003089789105904013</v>
       </c>
       <c r="P6">
-        <v>0.3570049557162962</v>
+        <v>0.004605501028823711</v>
       </c>
       <c r="Q6">
-        <v>1735.68344434166</v>
+        <v>20.28602418097083</v>
       </c>
       <c r="R6">
-        <v>10414.10066604996</v>
+        <v>121.716145085825</v>
       </c>
       <c r="S6">
-        <v>0.09171120154141243</v>
+        <v>0.00287354692246192</v>
       </c>
       <c r="T6">
-        <v>0.09107596043875134</v>
+        <v>0.004148951223348752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.62119</v>
+        <v>104.1546325</v>
       </c>
       <c r="H7">
-        <v>49.24238</v>
+        <v>208.309265</v>
       </c>
       <c r="I7">
-        <v>0.3385836225326934</v>
+        <v>0.9300139342750302</v>
       </c>
       <c r="J7">
-        <v>0.2551111937816554</v>
+        <v>0.9008685911440201</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.064225333333333</v>
+        <v>0.05489533333333333</v>
       </c>
       <c r="N7">
-        <v>3.192676</v>
+        <v>0.164686</v>
       </c>
       <c r="O7">
-        <v>0.004089107683716</v>
+        <v>0.0008708551333548545</v>
       </c>
       <c r="P7">
-        <v>0.005389473690465284</v>
+        <v>0.001298057593949841</v>
       </c>
       <c r="Q7">
-        <v>26.20249413481333</v>
+        <v>5.717603269298333</v>
       </c>
       <c r="R7">
-        <v>157.21496480888</v>
+        <v>34.30561961579</v>
       </c>
       <c r="S7">
-        <v>0.001384504892478834</v>
+        <v>0.0008099074087549544</v>
       </c>
       <c r="T7">
-        <v>0.001374915067029422</v>
+        <v>0.001169379315885389</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>20.849232</v>
       </c>
       <c r="I8">
-        <v>0.09557090860331489</v>
+        <v>0.06205541323036482</v>
       </c>
       <c r="J8">
-        <v>0.1080141224886102</v>
+        <v>0.09016602434017912</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>188.15226</v>
+        <v>62.009941</v>
       </c>
       <c r="N8">
-        <v>376.30452</v>
+        <v>124.019882</v>
       </c>
       <c r="O8">
-        <v>0.7229435608948707</v>
+        <v>0.9837206946349113</v>
       </c>
       <c r="P8">
-        <v>0.6352299168920266</v>
+        <v>0.9775266241870173</v>
       </c>
       <c r="Q8">
-        <v>1307.61004002144</v>
+        <v>430.953215405104</v>
       </c>
       <c r="R8">
-        <v>7845.660240128641</v>
+        <v>2585.719292430624</v>
       </c>
       <c r="S8">
-        <v>0.0690923729836387</v>
+        <v>0.06104519420883095</v>
       </c>
       <c r="T8">
-        <v>0.06861380205160506</v>
+        <v>0.08813968938961973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>20.849232</v>
       </c>
       <c r="I9">
-        <v>0.09557090860331489</v>
+        <v>0.06205541323036482</v>
       </c>
       <c r="J9">
-        <v>0.1080141224886102</v>
+        <v>0.09016602434017912</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.255768</v>
       </c>
       <c r="O9">
-        <v>0.0003275819074809576</v>
+        <v>0.001352494296709523</v>
       </c>
       <c r="P9">
-        <v>0.0004317553384254854</v>
+        <v>0.002015967323812363</v>
       </c>
       <c r="Q9">
         <v>0.592507374464</v>
@@ -1013,10 +1013,10 @@
         <v>5.332566370176</v>
       </c>
       <c r="S9">
-        <v>3.130730053996216E-05</v>
+        <v>8.392959247402109E-05</v>
       </c>
       <c r="T9">
-        <v>4.663567400980174E-05</v>
+        <v>0.0001817717587878713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>20.849232</v>
       </c>
       <c r="I10">
-        <v>0.09557090860331489</v>
+        <v>0.06205541323036482</v>
       </c>
       <c r="J10">
-        <v>0.1080141224886102</v>
+        <v>0.09016602434017912</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2289113333333334</v>
+        <v>0.4639336666666667</v>
       </c>
       <c r="N10">
-        <v>0.6867340000000001</v>
+        <v>1.391801</v>
       </c>
       <c r="O10">
-        <v>0.0008795534767915766</v>
+        <v>0.007359806209747155</v>
       </c>
       <c r="P10">
-        <v>0.001159257884404176</v>
+        <v>0.01097019696462955</v>
       </c>
       <c r="Q10">
-        <v>1.590875165365333</v>
+        <v>3.224220216314667</v>
       </c>
       <c r="R10">
-        <v>14.317876488288</v>
+        <v>29.017981946832</v>
       </c>
       <c r="S10">
-        <v>8.405972494217561E-05</v>
+        <v>0.0004567158156412648</v>
       </c>
       <c r="T10">
-        <v>0.0001252162231219198</v>
+        <v>0.0009891390465293472</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>20.849232</v>
       </c>
       <c r="I11">
-        <v>0.09557090860331489</v>
+        <v>0.06205541323036482</v>
       </c>
       <c r="J11">
-        <v>0.1080141224886102</v>
+        <v>0.09016602434017912</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.232407</v>
+        <v>0.227331</v>
       </c>
       <c r="N11">
-        <v>0.4648139999999999</v>
+        <v>0.454662</v>
       </c>
       <c r="O11">
-        <v>0.0008929849907563915</v>
+        <v>0.003606360619373094</v>
       </c>
       <c r="P11">
-        <v>0.000784640478382376</v>
+        <v>0.003583652901767135</v>
       </c>
       <c r="Q11">
-        <v>1.615169153808</v>
+        <v>1.579892253264</v>
       </c>
       <c r="R11">
-        <v>9.691014922848</v>
+        <v>9.479353519584</v>
       </c>
       <c r="S11">
-        <v>8.534338693571109E-05</v>
+        <v>0.0002237941984929118</v>
       </c>
       <c r="T11">
-        <v>8.475225274151568E-05</v>
+        <v>0.0003231237347674891</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>20.849232</v>
       </c>
       <c r="I12">
-        <v>0.09557090860331489</v>
+        <v>0.06205541323036482</v>
       </c>
       <c r="J12">
-        <v>0.1080141224886102</v>
+        <v>0.09016602434017912</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>70.49551400000001</v>
+        <v>0.1947683333333333</v>
       </c>
       <c r="N12">
-        <v>211.486542</v>
+        <v>0.5843050000000001</v>
       </c>
       <c r="O12">
-        <v>0.2708672110463845</v>
+        <v>0.003089789105904013</v>
       </c>
       <c r="P12">
-        <v>0.3570049557162962</v>
+        <v>0.004605501028823711</v>
       </c>
       <c r="Q12">
-        <v>489.9257754484161</v>
+        <v>1.353590055973333</v>
       </c>
       <c r="R12">
-        <v>4409.331979035745</v>
+        <v>12.18231050376</v>
       </c>
       <c r="S12">
-        <v>0.02588702547054882</v>
+        <v>0.000191738139761553</v>
       </c>
       <c r="T12">
-        <v>0.03856157701578089</v>
+        <v>0.0004152597178636387</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>20.849232</v>
       </c>
       <c r="I13">
-        <v>0.09557090860331489</v>
+        <v>0.06205541323036482</v>
       </c>
       <c r="J13">
-        <v>0.1080141224886102</v>
+        <v>0.09016602434017912</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.064225333333333</v>
+        <v>0.05489533333333333</v>
       </c>
       <c r="N13">
-        <v>3.192676</v>
+        <v>0.164686</v>
       </c>
       <c r="O13">
-        <v>0.004089107683716</v>
+        <v>0.0008708551333548545</v>
       </c>
       <c r="P13">
-        <v>0.005389473690465284</v>
+        <v>0.001298057593949841</v>
       </c>
       <c r="Q13">
-        <v>7.396093624981334</v>
+        <v>0.3815085134613333</v>
       </c>
       <c r="R13">
-        <v>66.564842624832</v>
+        <v>3.433576621152</v>
       </c>
       <c r="S13">
-        <v>0.0003907997367095345</v>
+        <v>5.404127516411996E-05</v>
       </c>
       <c r="T13">
-        <v>0.0005821392713510594</v>
+        <v>0.0001170406926110357</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.510192</v>
+        <v>0.591442</v>
       </c>
       <c r="H14">
-        <v>1.020384</v>
+        <v>1.182884</v>
       </c>
       <c r="I14">
-        <v>0.007016015698152685</v>
+        <v>0.005281083405632414</v>
       </c>
       <c r="J14">
-        <v>0.005286328166016764</v>
+        <v>0.00511558159723142</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>188.15226</v>
+        <v>62.009941</v>
       </c>
       <c r="N14">
-        <v>376.30452</v>
+        <v>124.019882</v>
       </c>
       <c r="O14">
-        <v>0.7229435608948707</v>
+        <v>0.9837206946349113</v>
       </c>
       <c r="P14">
-        <v>0.6352299168920266</v>
+        <v>0.9775266241870173</v>
       </c>
       <c r="Q14">
-        <v>95.99377783392001</v>
+        <v>36.675283524922</v>
       </c>
       <c r="R14">
-        <v>383.97511133568</v>
+        <v>146.701134099688</v>
       </c>
       <c r="S14">
-        <v>0.005072183372116814</v>
+        <v>0.005195111036213621</v>
       </c>
       <c r="T14">
-        <v>0.003358033801562809</v>
+        <v>0.00500061720949486</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.510192</v>
+        <v>0.591442</v>
       </c>
       <c r="H15">
-        <v>1.020384</v>
+        <v>1.182884</v>
       </c>
       <c r="I15">
-        <v>0.007016015698152685</v>
+        <v>0.005281083405632414</v>
       </c>
       <c r="J15">
-        <v>0.005286328166016764</v>
+        <v>0.00511558159723142</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.255768</v>
       </c>
       <c r="O15">
-        <v>0.0003275819074809576</v>
+        <v>0.001352494296709523</v>
       </c>
       <c r="P15">
-        <v>0.0004317553384254854</v>
+        <v>0.002015967323812363</v>
       </c>
       <c r="Q15">
-        <v>0.043496929152</v>
+        <v>0.050423979152</v>
       </c>
       <c r="R15">
-        <v>0.260981574912</v>
+        <v>0.302543874912</v>
       </c>
       <c r="S15">
-        <v>2.298319805317199E-06</v>
+        <v>7.142635186565142E-06</v>
       </c>
       <c r="T15">
-        <v>2.282400406346743E-06</v>
+        <v>1.03128453423144E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.510192</v>
+        <v>0.591442</v>
       </c>
       <c r="H16">
-        <v>1.020384</v>
+        <v>1.182884</v>
       </c>
       <c r="I16">
-        <v>0.007016015698152685</v>
+        <v>0.005281083405632414</v>
       </c>
       <c r="J16">
-        <v>0.005286328166016764</v>
+        <v>0.00511558159723142</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2289113333333334</v>
+        <v>0.4639336666666667</v>
       </c>
       <c r="N16">
-        <v>0.6867340000000001</v>
+        <v>1.391801</v>
       </c>
       <c r="O16">
-        <v>0.0008795534767915766</v>
+        <v>0.007359806209747155</v>
       </c>
       <c r="P16">
-        <v>0.001159257884404176</v>
+        <v>0.01097019696462955</v>
       </c>
       <c r="Q16">
-        <v>0.116788730976</v>
+        <v>0.2743898556806667</v>
       </c>
       <c r="R16">
-        <v>0.7007323858560001</v>
+        <v>1.646339134084</v>
       </c>
       <c r="S16">
-        <v>6.170961000534474E-06</v>
+        <v>3.88677504429661E-05</v>
       </c>
       <c r="T16">
-        <v>6.128217606002803E-06</v>
+        <v>5.611893771026291E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.510192</v>
+        <v>0.591442</v>
       </c>
       <c r="H17">
-        <v>1.020384</v>
+        <v>1.182884</v>
       </c>
       <c r="I17">
-        <v>0.007016015698152685</v>
+        <v>0.005281083405632414</v>
       </c>
       <c r="J17">
-        <v>0.005286328166016764</v>
+        <v>0.00511558159723142</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.232407</v>
+        <v>0.227331</v>
       </c>
       <c r="N17">
-        <v>0.4648139999999999</v>
+        <v>0.454662</v>
       </c>
       <c r="O17">
-        <v>0.0008929849907563915</v>
+        <v>0.003606360619373094</v>
       </c>
       <c r="P17">
-        <v>0.000784640478382376</v>
+        <v>0.003583652901767135</v>
       </c>
       <c r="Q17">
-        <v>0.118572192144</v>
+        <v>0.134453101302</v>
       </c>
       <c r="R17">
-        <v>0.4742887685759999</v>
+        <v>0.537812405208</v>
       </c>
       <c r="S17">
-        <v>6.265196713361573E-06</v>
+        <v>1.904549122169748E-05</v>
       </c>
       <c r="T17">
-        <v>4.147867061069622E-06</v>
+        <v>1.833246883514493E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.510192</v>
+        <v>0.591442</v>
       </c>
       <c r="H18">
-        <v>1.020384</v>
+        <v>1.182884</v>
       </c>
       <c r="I18">
-        <v>0.007016015698152685</v>
+        <v>0.005281083405632414</v>
       </c>
       <c r="J18">
-        <v>0.005286328166016764</v>
+        <v>0.00511558159723142</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>70.49551400000001</v>
+        <v>0.1947683333333333</v>
       </c>
       <c r="N18">
-        <v>211.486542</v>
+        <v>0.5843050000000001</v>
       </c>
       <c r="O18">
-        <v>0.2708672110463845</v>
+        <v>0.003089789105904013</v>
       </c>
       <c r="P18">
-        <v>0.3570049557162962</v>
+        <v>0.004605501028823711</v>
       </c>
       <c r="Q18">
-        <v>35.96624727868801</v>
+        <v>0.1151941726033334</v>
       </c>
       <c r="R18">
-        <v>215.797483672128</v>
+        <v>0.6911650356200001</v>
       </c>
       <c r="S18">
-        <v>0.00190040860481627</v>
+        <v>1.63174339740935E-05</v>
       </c>
       <c r="T18">
-        <v>0.001887245352810624</v>
+        <v>2.355981630908095E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.510192</v>
+        <v>0.591442</v>
       </c>
       <c r="H19">
-        <v>1.020384</v>
+        <v>1.182884</v>
       </c>
       <c r="I19">
-        <v>0.007016015698152685</v>
+        <v>0.005281083405632414</v>
       </c>
       <c r="J19">
-        <v>0.005286328166016764</v>
+        <v>0.00511558159723142</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.064225333333333</v>
+        <v>0.05489533333333333</v>
       </c>
       <c r="N19">
-        <v>3.192676</v>
+        <v>0.164686</v>
       </c>
       <c r="O19">
-        <v>0.004089107683716</v>
+        <v>0.0008708551333548545</v>
       </c>
       <c r="P19">
-        <v>0.005389473690465284</v>
+        <v>0.001298057593949841</v>
       </c>
       <c r="Q19">
-        <v>0.542959251264</v>
+        <v>0.03246740573733333</v>
       </c>
       <c r="R19">
-        <v>3.257755507584</v>
+        <v>0.194804434424</v>
       </c>
       <c r="S19">
-        <v>2.868924370038822E-05</v>
+        <v>4.599058593470125E-06</v>
       </c>
       <c r="T19">
-        <v>2.849052656991295E-05</v>
+        <v>6.640319539756299E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>40.63706933333334</v>
+        <v>0.296732</v>
       </c>
       <c r="H20">
-        <v>121.911208</v>
+        <v>0.890196</v>
       </c>
       <c r="I20">
-        <v>0.558829453165839</v>
+        <v>0.002649569088972574</v>
       </c>
       <c r="J20">
-        <v>0.6315883555637176</v>
+        <v>0.003849802918569379</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>188.15226</v>
+        <v>62.009941</v>
       </c>
       <c r="N20">
-        <v>376.30452</v>
+        <v>124.019882</v>
       </c>
       <c r="O20">
-        <v>0.7229435608948707</v>
+        <v>0.9837206946349113</v>
       </c>
       <c r="P20">
-        <v>0.6352299168920266</v>
+        <v>0.9775266241870173</v>
       </c>
       <c r="Q20">
-        <v>7645.956434843361</v>
+        <v>18.400333812812</v>
       </c>
       <c r="R20">
-        <v>45875.73860906017</v>
+        <v>110.402002876872</v>
       </c>
       <c r="S20">
-        <v>0.404002154804645</v>
+        <v>0.00260643594468729</v>
       </c>
       <c r="T20">
-        <v>0.401203818614712</v>
+        <v>0.003763284850774451</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>40.63706933333334</v>
+        <v>0.296732</v>
       </c>
       <c r="H21">
-        <v>121.911208</v>
+        <v>0.890196</v>
       </c>
       <c r="I21">
-        <v>0.558829453165839</v>
+        <v>0.002649569088972574</v>
       </c>
       <c r="J21">
-        <v>0.6315883555637176</v>
+        <v>0.003849802918569379</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.255768</v>
       </c>
       <c r="O21">
-        <v>0.0003275819074809576</v>
+        <v>0.001352494296709523</v>
       </c>
       <c r="P21">
-        <v>0.0004317553384254854</v>
+        <v>0.002015967323812363</v>
       </c>
       <c r="Q21">
-        <v>3.464553983082667</v>
+        <v>0.025298183392</v>
       </c>
       <c r="R21">
-        <v>31.180985847744</v>
+        <v>0.227683650528</v>
       </c>
       <c r="S21">
-        <v>0.000183062418224606</v>
+        <v>3.583527081573252E-06</v>
       </c>
       <c r="T21">
-        <v>0.0002726916442020087</v>
+        <v>7.761076886953336E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.296732</v>
+      </c>
+      <c r="H22">
+        <v>0.890196</v>
+      </c>
+      <c r="I22">
+        <v>0.002649569088972574</v>
+      </c>
+      <c r="J22">
+        <v>0.003849802918569379</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>40.63706933333334</v>
-      </c>
-      <c r="H22">
-        <v>121.911208</v>
-      </c>
-      <c r="I22">
-        <v>0.558829453165839</v>
-      </c>
-      <c r="J22">
-        <v>0.6315883555637176</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2289113333333334</v>
+        <v>0.4639336666666667</v>
       </c>
       <c r="N22">
-        <v>0.6867340000000001</v>
+        <v>1.391801</v>
       </c>
       <c r="O22">
-        <v>0.0008795534767915766</v>
+        <v>0.007359806209747155</v>
       </c>
       <c r="P22">
-        <v>0.001159257884404176</v>
+        <v>0.01097019696462955</v>
       </c>
       <c r="Q22">
-        <v>9.302285723852446</v>
+        <v>0.1376639647773333</v>
       </c>
       <c r="R22">
-        <v>83.72057151467202</v>
+        <v>1.238975682996</v>
       </c>
       <c r="S22">
-        <v>0.0004915203884655492</v>
+        <v>1.950031503417446E-05</v>
       </c>
       <c r="T22">
-        <v>0.0007321737808851078</v>
+        <v>4.223309629171179E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>40.63706933333334</v>
+        <v>0.296732</v>
       </c>
       <c r="H23">
-        <v>121.911208</v>
+        <v>0.890196</v>
       </c>
       <c r="I23">
-        <v>0.558829453165839</v>
+        <v>0.002649569088972574</v>
       </c>
       <c r="J23">
-        <v>0.6315883555637176</v>
+        <v>0.003849802918569379</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.232407</v>
+        <v>0.227331</v>
       </c>
       <c r="N23">
-        <v>0.4648139999999999</v>
+        <v>0.454662</v>
       </c>
       <c r="O23">
-        <v>0.0008929849907563915</v>
+        <v>0.003606360619373094</v>
       </c>
       <c r="P23">
-        <v>0.000784640478382376</v>
+        <v>0.003583652901767135</v>
       </c>
       <c r="Q23">
-        <v>9.444339372551999</v>
+        <v>0.067456382292</v>
       </c>
       <c r="R23">
-        <v>56.666036235312</v>
+        <v>0.404738293752</v>
       </c>
       <c r="S23">
-        <v>0.0004990263140696961</v>
+        <v>9.555301620778937E-06</v>
       </c>
       <c r="T23">
-        <v>0.0004955697894502536</v>
+        <v>1.379635740036274E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>40.63706933333334</v>
+        <v>0.296732</v>
       </c>
       <c r="H24">
-        <v>121.911208</v>
+        <v>0.890196</v>
       </c>
       <c r="I24">
-        <v>0.558829453165839</v>
+        <v>0.002649569088972574</v>
       </c>
       <c r="J24">
-        <v>0.6315883555637176</v>
+        <v>0.003849802918569379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>70.49551400000001</v>
+        <v>0.1947683333333333</v>
       </c>
       <c r="N24">
-        <v>211.486542</v>
+        <v>0.5843050000000001</v>
       </c>
       <c r="O24">
-        <v>0.2708672110463845</v>
+        <v>0.003089789105904013</v>
       </c>
       <c r="P24">
-        <v>0.3570049557162962</v>
+        <v>0.004605501028823711</v>
       </c>
       <c r="Q24">
-        <v>2864.731090106971</v>
+        <v>0.05779399708666667</v>
       </c>
       <c r="R24">
-        <v>25782.57981096274</v>
+        <v>0.52014597378</v>
       </c>
       <c r="S24">
-        <v>0.151368575429607</v>
+        <v>8.186609706447481E-06</v>
       </c>
       <c r="T24">
-        <v>0.2254801729089533</v>
+        <v>1.77302713022398E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>40.63706933333334</v>
+        <v>0.296732</v>
       </c>
       <c r="H25">
-        <v>121.911208</v>
+        <v>0.890196</v>
       </c>
       <c r="I25">
-        <v>0.558829453165839</v>
+        <v>0.002649569088972574</v>
       </c>
       <c r="J25">
-        <v>0.6315883555637176</v>
+        <v>0.003849802918569379</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>1.064225333333333</v>
+        <v>0.05489533333333333</v>
       </c>
       <c r="N25">
-        <v>3.192676</v>
+        <v>0.164686</v>
       </c>
       <c r="O25">
-        <v>0.004089107683716</v>
+        <v>0.0008708551333548545</v>
       </c>
       <c r="P25">
-        <v>0.005389473690465284</v>
+        <v>0.001298057593949841</v>
       </c>
       <c r="Q25">
-        <v>43.24699865695645</v>
+        <v>0.01628920205066666</v>
       </c>
       <c r="R25">
-        <v>389.2229879126081</v>
+        <v>0.146602818456</v>
       </c>
       <c r="S25">
-        <v>0.002285113810827243</v>
+        <v>2.307390842310112E-06</v>
       </c>
       <c r="T25">
-        <v>0.00340392882551489</v>
+        <v>4.997265913659241E-06</v>
       </c>
     </row>
   </sheetData>
